--- a/biology/Médecine/Cicero_Moraes/Cicero_Moraes.xlsx
+++ b/biology/Médecine/Cicero_Moraes/Cicero_Moraes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicero André da Costa Moraes est un designer 3D brésilien spécialisé dans la reconstruction faciale en médecine légale et en moulage de prothèses humaines et vétérinaires.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le responsable de la reconstruction faciale de nombreuses figures religieuses et historiques comme saint Antoine de Padoue[1], sainte Marie-Madeleine (dont le crâne se trouve dans la basilique Sainte-Marie-Madeleine de Saint-Maximin-la-Sainte-Baume[2]), saint Valentin[3],[4], le « vampire » de Čelákovice[5] et le Seigneur de Sipán dans la huaca Rajada[6].
-Dans le champ vétérinaire il a projeté et moulé digitalement des prothèses pour différents animaux dont une tortue[7],[8], une oie[9],[10], un chien[11], un perroquet[12] et un araçari[13].
-Depuis 2023 il est membre d'Intertel et de Mensa, des associations pour des personnes à QI élevé[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le responsable de la reconstruction faciale de nombreuses figures religieuses et historiques comme saint Antoine de Padoue, sainte Marie-Madeleine (dont le crâne se trouve dans la basilique Sainte-Marie-Madeleine de Saint-Maximin-la-Sainte-Baume), saint Valentin le « vampire » de Čelákovice et le Seigneur de Sipán dans la huaca Rajada.
+Dans le champ vétérinaire il a projeté et moulé digitalement des prothèses pour différents animaux dont une tortue une oie un chien, un perroquet et un araçari.
+Depuis 2023 il est membre d'Intertel et de Mensa, des associations pour des personnes à QI élevé.
 </t>
         </is>
       </c>
